--- a/eq_log/eq_file/80001841.xlsx
+++ b/eq_log/eq_file/80001841.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
   <si>
     <t>тип обладнання</t>
   </si>
@@ -54,6 +54,15 @@
   </si>
   <si>
     <t>3</t>
+  </si>
+  <si>
+    <t>27/03/2018</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
   <si>
     <t>**</t>
@@ -747,6 +756,15 @@
       <c r="A6" t="s">
         <v>13</v>
       </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
       <c r="E6" s="20">
         <f>D6-D5</f>
         <v/>
@@ -755,6 +773,18 @@
       <c r="H6" s="12" t="n"/>
     </row>
     <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
       <c r="E7" s="20">
         <f>D7-D6</f>
         <v/>
@@ -763,6 +793,9 @@
       <c r="H7" s="12" t="n"/>
     </row>
     <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
       <c r="E8" s="20">
         <f>D8-D7</f>
         <v/>
@@ -49539,21 +49572,21 @@
   <sheetData>
     <row customFormat="1" r="1" s="13" spans="1:6">
       <c r="A1" s="14" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="21" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D3" s="21">
         <f>C3-C2</f>
@@ -61532,7 +61565,7 @@
         <v>400001370</v>
       </c>
       <c r="B1998" s="21" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C1998" s="21" t="n">
         <v>119000</v>
@@ -61551,7 +61584,7 @@
         <v>400001964</v>
       </c>
       <c r="B1999" s="21" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C1999" s="21" t="n">
         <v>120000</v>
